--- a/data/trans_dic/IP37-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP37-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -864,37 +864,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>56,87; 77,6</t>
+          <t>58,18; 78,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>54,71; 74,73</t>
+          <t>54,76; 75,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>56,7; 77,72</t>
+          <t>55,28; 78,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>47,24; 100,0</t>
+          <t>29,41; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>45,31; 65,54</t>
+          <t>43,21; 65,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>58,91; 77,84</t>
+          <t>58,97; 77,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>63,4; 85,53</t>
+          <t>63,91; 85,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,22 +904,22 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>53,51; 68,45</t>
+          <t>53,39; 68,99</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>59,72; 73,81</t>
+          <t>60,15; 73,96</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>63,53; 78,93</t>
+          <t>63,47; 79,27</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>46,74; 96,95</t>
+          <t>42,97; 100,0</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>55,84; 66,76</t>
+          <t>55,44; 66,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>70,29; 78,58</t>
+          <t>70,09; 78,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>67,27; 76,74</t>
+          <t>68,01; 76,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>27,88; 69,18</t>
+          <t>29,63; 68,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>57,18; 67,66</t>
+          <t>56,92; 67,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>75,31; 82,98</t>
+          <t>74,75; 82,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>71,14; 79,91</t>
+          <t>71,08; 79,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,88; 47,51</t>
+          <t>14,85; 45,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>58,08; 65,81</t>
+          <t>58,07; 65,8</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>73,58; 79,73</t>
+          <t>73,86; 79,69</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>70,72; 77,07</t>
+          <t>71,06; 77,2</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>26,49; 52,37</t>
+          <t>24,66; 51,21</t>
         </is>
       </c>
     </row>
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>56,8; 80,02</t>
+          <t>56,49; 78,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>64,94; 83,64</t>
+          <t>65,07; 83,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>71,48; 88,23</t>
+          <t>71,53; 88,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>49,57; 73,07</t>
+          <t>49,85; 74,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>66,04; 84,62</t>
+          <t>66,68; 85,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>70,39; 87,75</t>
+          <t>69,8; 87,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>56,27; 73,3</t>
+          <t>57,29; 72,45</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>68,82; 82,2</t>
+          <t>69,09; 81,89</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>74,09; 86,03</t>
+          <t>74,25; 85,51</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>58,67; 67,31</t>
+          <t>59,15; 67,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>69,61; 77,01</t>
+          <t>69,57; 76,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>69,44; 77,01</t>
+          <t>69,31; 76,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>35,3; 72,88</t>
+          <t>33,3; 71,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>56,7; 65,41</t>
+          <t>56,76; 66,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>73,1; 80,26</t>
+          <t>73,55; 80,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>72,54; 79,83</t>
+          <t>72,7; 79,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17,69; 47,3</t>
+          <t>18,15; 48,54</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>59,19; 65,24</t>
+          <t>58,94; 65,55</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>72,44; 77,4</t>
+          <t>72,75; 77,73</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>71,97; 77,52</t>
+          <t>72,12; 77,34</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>30,48; 54,87</t>
+          <t>30,57; 54,08</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP37-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP37-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,07%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>68,64%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,02%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,74%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,26%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,64%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,34%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,96%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,31%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>67,16%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,56%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>70,48%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,34; 65,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>58,32; 77,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>62,24; 85,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>48,01; 83,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>57,36; 78,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>54,34; 74,4</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>54,43; 77,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>56,9; 83,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>54,27; 68,53</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>59,71; 73,54</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>63,44; 79,11</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>59,38; 80,41</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>68,26%</t>
+          <t>62,54%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>65,64%</t>
+          <t>79,15%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>67,34%</t>
+          <t>75,65%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>90,69%</t>
+          <t>68,44%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>55,07%</t>
+          <t>61,35%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>68,64%</t>
+          <t>74,66%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>76,02%</t>
+          <t>72,55%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>57,48%</t>
+          <t>67,99%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>61,31%</t>
+          <t>61,91%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>67,16%</t>
+          <t>76,8%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>71,56%</t>
+          <t>74,09%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>77,48%</t>
+          <t>68,22%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>58,18; 78,1</t>
+          <t>56,41; 67,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>54,76; 75,46</t>
+          <t>74,49; 82,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>55,28; 78,56</t>
+          <t>71,18; 80,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>29,41; 100,0</t>
+          <t>60,86; 78,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>43,21; 65,5</t>
+          <t>55,88; 66,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>58,97; 77,88</t>
+          <t>70,39; 78,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>63,91; 85,59</t>
+          <t>68,04; 77,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>61,24; 73,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>53,39; 68,99</t>
+          <t>57,6; 65,85</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>60,15; 73,96</t>
+          <t>73,45; 79,65</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>63,47; 79,27</t>
+          <t>70,9; 77,0</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>42,97; 100,0</t>
+          <t>63,62; 75,19</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>61,35%</t>
+          <t>62,84%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>74,66%</t>
+          <t>76,75%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>72,55%</t>
+          <t>80,02%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>47,75%</t>
+          <t>88,21%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>62,54%</t>
+          <t>68,44%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>79,15%</t>
+          <t>75,02%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>75,65%</t>
+          <t>80,89%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>29,22%</t>
+          <t>82,98%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>61,91%</t>
+          <t>65,45%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>76,8%</t>
+          <t>75,88%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>74,09%</t>
+          <t>80,46%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>37,88%</t>
+          <t>85,44%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>55,44; 66,72</t>
+          <t>50,71; 73,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>70,09; 78,76</t>
+          <t>66,07; 84,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>68,01; 76,51</t>
+          <t>70,07; 87,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>29,63; 68,17</t>
+          <t>70,88; 96,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>56,92; 67,81</t>
+          <t>56,72; 78,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>74,75; 82,62</t>
+          <t>64,93; 83,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>71,08; 79,93</t>
+          <t>71,62; 89,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,85; 45,44</t>
+          <t>58,1; 93,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>58,07; 65,8</t>
+          <t>56,45; 72,79</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>73,86; 79,69</t>
+          <t>68,22; 81,93</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>71,06; 77,2</t>
+          <t>73,89; 86,35</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>24,66; 51,21</t>
+          <t>73,7; 93,37</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>68,44%</t>
+          <t>61,13%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>75,02%</t>
+          <t>76,99%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>80,89%</t>
+          <t>76,4%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>70,04%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>62,84%</t>
+          <t>63,42%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>76,75%</t>
+          <t>73,32%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>80,02%</t>
+          <t>73,19%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>30,12%</t>
+          <t>70,18%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>65,45%</t>
+          <t>62,3%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>75,88%</t>
+          <t>75,1%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>80,46%</t>
+          <t>74,78%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>30,12%</t>
+          <t>70,11%</t>
         </is>
       </c>
     </row>
@@ -1144,216 +1144,75 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>56,49; 78,63</t>
+          <t>56,86; 66,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>65,07; 83,44</t>
+          <t>73,46; 80,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>71,53; 88,32</t>
+          <t>72,36; 79,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>63,64; 79,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>49,85; 74,25</t>
+          <t>58,76; 67,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>66,68; 85,21</t>
+          <t>69,67; 76,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>69,8; 87,7</t>
+          <t>69,34; 76,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>64,93; 75,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>57,29; 72,45</t>
+          <t>58,98; 65,36</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>69,09; 81,89</t>
+          <t>72,76; 77,81</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>74,25; 85,51</t>
+          <t>72,04; 77,25</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>65,78; 75,57</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>63,42%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>73,36%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>73,19%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>54,45%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>61,13%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>76,99%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>76,4%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>31,78%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>62,3%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>75,12%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>74,78%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>42,2%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>59,15; 67,61</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>69,57; 76,92</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>69,31; 76,7</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>33,3; 71,36</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>56,76; 66,04</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>73,55; 80,64</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>72,7; 79,91</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>18,15; 48,54</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>58,94; 65,55</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>72,75; 77,73</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>72,12; 77,34</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>30,57; 54,08</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
